--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-total.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-total.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1428,15 +1428,7 @@
     <t>High Range, if relevant</t>
   </si>
   <si>
-    <t>&lt;4.5 mmol/L.</t>
-  </si>
-  <si>
-    <t>Per Australian NHF Recommendations.</t>
-  </si>
-  <si>
-    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="4.5"/&gt;
-&lt;/valueQuantity&gt;</t>
+    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
@@ -7285,7 +7277,7 @@
         <v>450</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7293,7 +7285,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>82</v>
@@ -7359,7 +7351,7 @@
         <v>446</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7370,10 +7362,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7399,16 +7391,16 @@
         <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7436,10 +7428,10 @@
         <v>120</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7457,7 +7449,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7475,10 +7467,10 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>376</v>
@@ -7492,10 +7484,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7521,16 +7513,16 @@
         <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7558,10 +7550,10 @@
         <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7579,7 +7571,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7597,10 +7589,10 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>376</v>
@@ -7614,10 +7606,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7640,19 +7632,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7701,7 +7693,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7713,19 +7705,19 @@
         <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7736,10 +7728,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7765,10 +7757,10 @@
         <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>332</v>
@@ -7821,7 +7813,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7845,7 +7837,7 @@
         <v>446</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7856,10 +7848,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7882,16 +7874,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7941,7 +7933,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7962,10 +7954,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7976,10 +7968,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8002,16 +7994,16 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8061,7 +8053,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8082,10 +8074,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8096,10 +8088,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8125,16 +8117,16 @@
         <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8183,7 +8175,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8204,10 +8196,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8218,10 +8210,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8336,10 +8328,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8456,10 +8448,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8578,10 +8570,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8607,13 +8599,13 @@
         <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>213</v>
@@ -8665,7 +8657,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>93</v>
@@ -8683,7 +8675,7 @@
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>220</v>
@@ -8700,10 +8692,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8726,16 +8718,16 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>282</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>284</v>
@@ -8787,7 +8779,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8805,7 +8797,7 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>289</v>
@@ -8822,10 +8814,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8851,13 +8843,13 @@
         <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>360</v>
@@ -8909,7 +8901,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8944,10 +8936,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8973,10 +8965,10 @@
         <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>370</v>
@@ -9031,7 +9023,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9066,10 +9058,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9095,10 +9087,10 @@
         <v>83</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>427</v>
@@ -9153,7 +9145,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-total.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-total.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
